--- a/biology/Zoologie/Hirondelle/Hirondelle.xlsx
+++ b/biology/Zoologie/Hirondelle/Hirondelle.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hirundininae
 Les hirondelles  sont des oiseaux appartenant à  la famille des Hirundinidae, dont ils constituent la sous-famille des Hirundininae.
@@ -518,8 +530,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Liste des genres
-Les hirondelles sont réparties dans les genres suivants :
+          <t>Liste des genres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hirondelles sont réparties dans les genres suivants :
 Atticora Boie, 1844
 Cheramoeca Cabanis, 1850
 Delichon Horsfield &amp; Moore, 1854
@@ -533,7 +550,43 @@
 Riparia T. Forster, 1817
 Stelgidopteryx S.F. Baird, 1858
 Tachycineta Cabanis, 1850
-Liste des hirondelles par nom vernaculaire ou nom normalisé
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hirondelle</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hirondelle</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des hirondelles</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des hirondelles par nom vernaculaire ou nom normalisé</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Hirondelle à ailes blanches — Tachycineta albiventer (Boddaert, 1783)
 Hirondelle à ailes hérissées — Stelgidopteryx serripennis (Audubon, 1838)
 Hirondelle à ailes tachetées — Hirundo leucosoma Swainson, 1837
@@ -631,69 +684,73 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
         <is>
           <t>Hirondelle</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hirondelle</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Menaces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hirondelles sont des espèces protégées dans de nombreux pays, mais leur population est en régression de 30% en France et de 20% en Europe en partie à cause du réchauffement climatique mais surtout à cause de la raréfaction ou de l'empoisonnement de leur nourriture par les insecticides et de l'altération de leurs lieux de nidification[2],[3]. Il est probable qu'elles subissent aussi les effets de la pollution urbaine et il semble que lorsqu'une espèce a déserté une ville, elle n'y revienne que difficilement. Les hirondelles peuvent aussi accumuler les pesticides, les métaux lourds, des métalloïdes et d'autres produits polluants, eux-mêmes accumulés par les insectes qu'elles consomment. Ces produits toxiques sont notamment stockés dans leurs graisses, puis relargués dans l'organisme lors de l'épuisant voyage de migration vers le sud, affectant fortement les chances de survie de l'oiseau.
-Les hirondelles ne se nourrissent qu'en vol[4],[5]. En l'absence d'insectes, elles brûlent les réserves de graisse nécessaires à la migration en vain[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hirondelles sont des espèces protégées dans de nombreux pays, mais leur population est en régression de 30% en France et de 20% en Europe en partie à cause du réchauffement climatique mais surtout à cause de la raréfaction ou de l'empoisonnement de leur nourriture par les insecticides et de l'altération de leurs lieux de nidification,. Il est probable qu'elles subissent aussi les effets de la pollution urbaine et il semble que lorsqu'une espèce a déserté une ville, elle n'y revienne que difficilement. Les hirondelles peuvent aussi accumuler les pesticides, les métaux lourds, des métalloïdes et d'autres produits polluants, eux-mêmes accumulés par les insectes qu'elles consomment. Ces produits toxiques sont notamment stockés dans leurs graisses, puis relargués dans l'organisme lors de l'épuisant voyage de migration vers le sud, affectant fortement les chances de survie de l'oiseau.
+Les hirondelles ne se nourrissent qu'en vol,. En l'absence d'insectes, elles brûlent les réserves de graisse nécessaires à la migration en vain.
 Par ailleurs, les bâtiments modernes, aux matériaux souvent lisses (verre, acier, béton...), sont souvent moins adaptés à l'accueil des hirondelles de cheminée et de fenêtre, même si l'architecture HQE commence lentement à chercher à intégrer la biodiversité (Quinzième cible HQE) sur le bâti et ses alentours, tout en gérant les contraintes liées à la faune sauvage.
 Les fientes peuvent également se révéler être un problème (souvent résolu par la pose d'un plateau sous le nid).
 Les personnes tentées de détruire des nids d'hirondelles à cause des fientes, de grippe aviaire... risquent de fortes amendes car elles sont protégées au niveau européen.
 Les amendes varient en fonction du nid, s'il est vide, avec des œufs, des oisillons... L'amende minimum est aux alentours de 1 000 € pour un nid vide et allant jusqu'à 12 000 € avec une condamnation pour un nid habité.
 Les élevages industriels et le traitement antiparasitaire des animaux privent aussi les hirondelles de nombreux insectes qu'elles capturaient dans les prairies ou autour des étables, porcheries et écuries où ces derniers se nourrissaient.
-En Amérique du Nord, les hirondelles ont perdu 90 % de leurs effectifs depuis les années 1970[6].
+En Amérique du Nord, les hirondelles ont perdu 90 % de leurs effectifs depuis les années 1970.
 </t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Hirondelle</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Hirondelle</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Les hirondelles en France</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cinq espèces d'hirondelles nichent en France :
 			Hirondelle rustique (Hirundo rustica)
